--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2641.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2641.xlsx
@@ -354,7 +354,7 @@
         <v>1.474192503332434</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.599210505517483</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2641.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2641.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8127533400676616</v>
+        <v>1.188892841339111</v>
       </c>
       <c r="B1">
-        <v>1.474192503332434</v>
+        <v>2.194520950317383</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.485339641571045</v>
       </c>
       <c r="D1">
-        <v>1.599210505517483</v>
+        <v>2.105850219726562</v>
       </c>
       <c r="E1">
-        <v>0.866109945641228</v>
+        <v>1.082806825637817</v>
       </c>
     </row>
   </sheetData>
